--- a/src/DAS2/DAS2.xlsx
+++ b/src/DAS2/DAS2.xlsx
@@ -113,9 +113,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:O2" insertRow="1" totalsRowShown="0" headerRowDxfId="0" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
-  <x:autoFilter ref="A1:O2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <x:tableColumns count="15">
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="0" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:P2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="16">
     <x:tableColumn id="1" name="CompanyName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="2" name="GLAccountNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="3" name="TaxGroupCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
@@ -123,14 +123,15 @@
     <x:tableColumn id="5" name="DocumentType" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="6" name="DocumentNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="7" name="Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="8" name="VendorNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="9" name="VendorName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="10" name="ExternalDocumentNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="11" name="OriginalAmtLCY" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="12" name="PurchaseLCY" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="13" name="PaymentAmount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="14" name="PaymentPostingDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="15" name="AppliedAmount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="8" name="ExternalDocumentNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="9" name="OriginalAmtLCY" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="10" name="PurchaseLCY" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="11" name="PaymentAmount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="12" name="PaymentPostingDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="13" name="AppliedAmount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="14" name="VendorNumber" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="15" name="VendorName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="16" name="VendorEORINumber" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -468,28 +469,31 @@
         <x:v>Amount</x:v>
       </x:c>
       <x:c r="H1" t="str">
-        <x:v>VendorNo</x:v>
+        <x:v>ExternalDocumentNo</x:v>
       </x:c>
       <x:c r="I1" t="str">
+        <x:v>OriginalAmtLCY</x:v>
+      </x:c>
+      <x:c r="J1" t="str">
+        <x:v>PurchaseLCY</x:v>
+      </x:c>
+      <x:c r="K1" t="str">
+        <x:v>PaymentAmount</x:v>
+      </x:c>
+      <x:c r="L1" t="str">
+        <x:v>PaymentPostingDate</x:v>
+      </x:c>
+      <x:c r="M1" t="str">
+        <x:v>AppliedAmount</x:v>
+      </x:c>
+      <x:c r="N1" t="str">
+        <x:v>VendorNumber</x:v>
+      </x:c>
+      <x:c r="O1" t="str">
         <x:v>VendorName</x:v>
       </x:c>
-      <x:c r="J1" t="str">
-        <x:v>ExternalDocumentNo</x:v>
-      </x:c>
-      <x:c r="K1" t="str">
-        <x:v>OriginalAmtLCY</x:v>
-      </x:c>
-      <x:c r="L1" t="str">
-        <x:v>PurchaseLCY</x:v>
-      </x:c>
-      <x:c r="M1" t="str">
-        <x:v>PaymentAmount</x:v>
-      </x:c>
-      <x:c r="N1" t="str">
-        <x:v>PaymentPostingDate</x:v>
-      </x:c>
-      <x:c r="O1" t="str">
-        <x:v>AppliedAmount</x:v>
+      <x:c r="P1" t="str">
+        <x:v>VendorEORINumber</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/src/DAS2/DAS2.xlsx
+++ b/src/DAS2/DAS2.xlsx
@@ -113,9 +113,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="0" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
-  <x:autoFilter ref="A1:P2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <x:tableColumns count="16">
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:Q2" insertRow="1" totalsRowShown="0" headerRowDxfId="0" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:Q2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="17">
     <x:tableColumn id="1" name="CompanyName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="2" name="GLAccountNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="3" name="TaxGroupCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
@@ -123,15 +123,16 @@
     <x:tableColumn id="5" name="DocumentType" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="6" name="DocumentNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="7" name="Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="8" name="ExternalDocumentNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="9" name="OriginalAmtLCY" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="8" name="CurrencyCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="9" name="ExternalDocumentNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="10" name="PurchaseLCY" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="11" name="PaymentAmount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="12" name="PaymentPostingDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="13" name="AppliedAmount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="14" name="VendorNumber" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="15" name="VendorName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="16" name="VendorEORINumber" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="11" name="OriginalAmtLCY" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="12" name="AppliedAmount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="13" name="PaymentAmount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="14" name="PaymentPostingDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="15" name="VendorNumber" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="16" name="VendorName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="17" name="VendorEORINumber" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -469,30 +470,33 @@
         <x:v>Amount</x:v>
       </x:c>
       <x:c r="H1" t="str">
+        <x:v>CurrencyCode</x:v>
+      </x:c>
+      <x:c r="I1" t="str">
         <x:v>ExternalDocumentNo</x:v>
-      </x:c>
-      <x:c r="I1" t="str">
-        <x:v>OriginalAmtLCY</x:v>
       </x:c>
       <x:c r="J1" t="str">
         <x:v>PurchaseLCY</x:v>
       </x:c>
       <x:c r="K1" t="str">
+        <x:v>OriginalAmtLCY</x:v>
+      </x:c>
+      <x:c r="L1" t="str">
+        <x:v>AppliedAmount</x:v>
+      </x:c>
+      <x:c r="M1" t="str">
         <x:v>PaymentAmount</x:v>
       </x:c>
-      <x:c r="L1" t="str">
+      <x:c r="N1" t="str">
         <x:v>PaymentPostingDate</x:v>
       </x:c>
-      <x:c r="M1" t="str">
-        <x:v>AppliedAmount</x:v>
-      </x:c>
-      <x:c r="N1" t="str">
+      <x:c r="O1" t="str">
         <x:v>VendorNumber</x:v>
       </x:c>
-      <x:c r="O1" t="str">
+      <x:c r="P1" t="str">
         <x:v>VendorName</x:v>
       </x:c>
-      <x:c r="P1" t="str">
+      <x:c r="Q1" t="str">
         <x:v>VendorEORINumber</x:v>
       </x:c>
     </x:row>

--- a/src/DAS2/DAS2.xlsx
+++ b/src/DAS2/DAS2.xlsx
@@ -1,57 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <x:workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Platform-ModernDev\source\Prod\Microsoft.Dynamics.Nav.CodeAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwatr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00C130A-F9F5-40A8-916B-992F129BDA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Data" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:calcPr calcId="0"/>
-</x:workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC659713-0074-47D3-9EBA-89AA62B7CAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="4335" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>GLAccountNo</t>
+  </si>
+  <si>
+    <t>TaxGroupCode</t>
+  </si>
+  <si>
+    <t>PostingDate</t>
+  </si>
+  <si>
+    <t>DocumentType</t>
+  </si>
+  <si>
+    <t>DocumentNo</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>CurrencyCode</t>
+  </si>
+  <si>
+    <t>ExternalDocumentNo</t>
+  </si>
+  <si>
+    <t>PurchaseLCY</t>
+  </si>
+  <si>
+    <t>OriginalAmtLCY</t>
+  </si>
+  <si>
+    <t>AppliedAmount</t>
+  </si>
+  <si>
+    <t>PaymentAmount</t>
+  </si>
+  <si>
+    <t>PaymentPostingDate</t>
+  </si>
+  <si>
+    <t>VendorNumber</t>
+  </si>
+  <si>
+    <t>VendorName</t>
+  </si>
+  <si>
+    <t>VendorEORINumber</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>PostCode</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>CountryRegionCode</t>
+  </si>
+  <si>
+    <t>VATRegistrationNo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,9 +136,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,35 +182,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:Q2" insertRow="1" totalsRowShown="0" headerRowDxfId="0" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
-  <x:autoFilter ref="A1:Q2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <x:tableColumns count="17">
-    <x:tableColumn id="1" name="CompanyName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="2" name="GLAccountNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="3" name="TaxGroupCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="4" name="PostingDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="5" name="DocumentType" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="6" name="DocumentNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="7" name="Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="8" name="CurrencyCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="9" name="ExternalDocumentNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="10" name="PurchaseLCY" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="11" name="OriginalAmtLCY" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="12" name="AppliedAmount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="13" name="PaymentAmount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="14" name="PaymentPostingDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="15" name="VendorNumber" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="16" name="VendorName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="17" name="VendorEORINumber" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:W2" insertRow="1" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:W2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="CompanyName"/>
+    <tableColumn id="2" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="GLAccountNo"/>
+    <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="TaxGroupCode"/>
+    <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PostingDate"/>
+    <tableColumn id="5" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="DocumentType"/>
+    <tableColumn id="6" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="DocumentNo"/>
+    <tableColumn id="7" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Amount"/>
+    <tableColumn id="8" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="CurrencyCode"/>
+    <tableColumn id="9" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="ExternalDocumentNo"/>
+    <tableColumn id="10" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PurchaseLCY"/>
+    <tableColumn id="11" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="OriginalAmtLCY"/>
+    <tableColumn id="12" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="AppliedAmount"/>
+    <tableColumn id="13" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PaymentAmount"/>
+    <tableColumn id="14" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PaymentPostingDate"/>
+    <tableColumn id="15" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="VendorNumber"/>
+    <tableColumn id="16" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="VendorName"/>
+    <tableColumn id="23" xr3:uid="{DF93B181-664B-4980-BD84-AC1AD6AD7417}" name="VATRegistrationNo"/>
+    <tableColumn id="17" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="VendorEORINumber"/>
+    <tableColumn id="18" xr3:uid="{09E6C147-C5F5-4A4C-840F-B427EB07327B}" name="Address"/>
+    <tableColumn id="19" xr3:uid="{644A0C74-968C-4E4B-B35B-E186C9DD9F6D}" name="Address2"/>
+    <tableColumn id="20" xr3:uid="{1469DC80-A178-475C-B3A8-CD1AB8ED0CA7}" name="PostCode"/>
+    <tableColumn id="21" xr3:uid="{F1A93B52-00AA-4F31-A808-5E14DAFF13B8}" name="City"/>
+    <tableColumn id="22" xr3:uid="{B8EE0147-6B91-4B42-96A4-E1C2A9428452}" name="CountryRegionCode"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +254,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +360,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,83 +502,118 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" sqref="A1:A2"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <x:c r="A1" t="str">
-        <x:v>CompanyName</x:v>
-      </x:c>
-      <x:c r="B1" t="str">
-        <x:v>GLAccountNo</x:v>
-      </x:c>
-      <x:c r="C1" t="str">
-        <x:v>TaxGroupCode</x:v>
-      </x:c>
-      <x:c r="D1" t="str">
-        <x:v>PostingDate</x:v>
-      </x:c>
-      <x:c r="E1" t="str">
-        <x:v>DocumentType</x:v>
-      </x:c>
-      <x:c r="F1" t="str">
-        <x:v>DocumentNo</x:v>
-      </x:c>
-      <x:c r="G1" t="str">
-        <x:v>Amount</x:v>
-      </x:c>
-      <x:c r="H1" t="str">
-        <x:v>CurrencyCode</x:v>
-      </x:c>
-      <x:c r="I1" t="str">
-        <x:v>ExternalDocumentNo</x:v>
-      </x:c>
-      <x:c r="J1" t="str">
-        <x:v>PurchaseLCY</x:v>
-      </x:c>
-      <x:c r="K1" t="str">
-        <x:v>OriginalAmtLCY</x:v>
-      </x:c>
-      <x:c r="L1" t="str">
-        <x:v>AppliedAmount</x:v>
-      </x:c>
-      <x:c r="M1" t="str">
-        <x:v>PaymentAmount</x:v>
-      </x:c>
-      <x:c r="N1" t="str">
-        <x:v>PaymentPostingDate</x:v>
-      </x:c>
-      <x:c r="O1" t="str">
-        <x:v>VendorNumber</x:v>
-      </x:c>
-      <x:c r="P1" t="str">
-        <x:v>VendorName</x:v>
-      </x:c>
-      <x:c r="Q1" t="str">
-        <x:v>VendorEORINumber</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:tableParts count="1">
-    <x:tablePart r:id="rId1"/>
-  </x:tableParts>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.54296875" customWidth="1"/>
+    <col min="18" max="18" width="20.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>